--- a/data/trans_orig/P45C_R1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P45C_R1-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07AEA95E-C20F-43BE-B938-AF00B331FF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C957D516-9E1E-4E0B-8296-32331E6A8691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A54D4B72-AD14-47DF-BFFF-10CE525536BB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BBCCF03E-91A6-447D-BE25-307CB8188ACF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="241">
   <si>
     <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2007 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -77,667 +77,679 @@
     <t>0,99%</t>
   </si>
   <si>
-    <t>0,5%</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2012 (Tasa respuesta: 99,08%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
   </si>
   <si>
     <t>1,76%</t>
   </si>
   <si>
-    <t>1,05%</t>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2016 (Tasa respuesta: 99,24%)</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
   </si>
   <si>
     <t>0,57%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
   </si>
   <si>
     <t>99,43%</t>
   </si>
   <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>2,09%</t>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
   </si>
   <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
   </si>
   <si>
     <t>98,51%</t>
   </si>
   <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,75%</t>
+    <t>98,01%</t>
   </si>
   <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
   </si>
   <si>
     <t>99,14%</t>
   </si>
   <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2012 (Tasa respuesta: 99,08%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
   </si>
   <si>
     <t>98,82%</t>
   </si>
   <si>
-    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2015 (Tasa respuesta: 99,24%)</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
+    <t>1,71%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
   </si>
   <si>
     <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
   </si>
   <si>
     <t>98,1%</t>
@@ -1161,7 +1173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8463AF30-AE7F-4CE9-A09D-DA823B7EB423}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C34D85E-9A74-4D4B-B903-B687E8D93017}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1518,7 +1530,7 @@
         <v>3130</v>
       </c>
       <c r="N8" s="7">
-        <v>3204970</v>
+        <v>3204971</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1569,7 +1581,7 @@
         <v>3194</v>
       </c>
       <c r="N9" s="7">
-        <v>3272546</v>
+        <v>3272547</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1771,7 +1783,7 @@
         <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="M13" s="7">
         <v>107</v>
@@ -1780,13 +1792,13 @@
         <v>111492</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1801,13 +1813,13 @@
         <v>3213723</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>3234</v>
@@ -1816,13 +1828,13 @@
         <v>3314648</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>6388</v>
@@ -1831,13 +1843,13 @@
         <v>6528372</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1893,7 +1905,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1912,7 +1924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21BD2F9-FD57-462D-8077-3306A8427C91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EA0509-611E-4E1F-BBF5-9B09DA63D3C3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1929,7 +1941,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2036,13 +2048,13 @@
         <v>10719</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -2051,13 +2063,13 @@
         <v>19600</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -2066,13 +2078,13 @@
         <v>30320</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2087,13 +2099,13 @@
         <v>955671</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H5" s="7">
         <v>1214</v>
@@ -2102,13 +2114,13 @@
         <v>1302327</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M5" s="7">
         <v>2103</v>
@@ -2117,13 +2129,13 @@
         <v>2257998</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2191,13 +2203,13 @@
         <v>27813</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -2206,13 +2218,13 @@
         <v>25799</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -2221,13 +2233,13 @@
         <v>53612</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2242,13 +2254,13 @@
         <v>1922618</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="H8" s="7">
         <v>1595</v>
@@ -2257,13 +2269,13 @@
         <v>1715953</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M8" s="7">
         <v>3412</v>
@@ -2272,13 +2284,13 @@
         <v>3638572</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2346,13 +2358,13 @@
         <v>5479</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -2361,13 +2373,13 @@
         <v>10861</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -2376,13 +2388,13 @@
         <v>16340</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2397,13 +2409,13 @@
         <v>469750</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H11" s="7">
         <v>399</v>
@@ -2412,13 +2424,13 @@
         <v>444807</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M11" s="7">
         <v>826</v>
@@ -2427,13 +2439,13 @@
         <v>914557</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>128</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2507,7 +2519,7 @@
         <v>130</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="H13" s="7">
         <v>53</v>
@@ -2516,13 +2528,13 @@
         <v>56260</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>132</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="M13" s="7">
         <v>95</v>
@@ -2531,13 +2543,13 @@
         <v>100272</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2555,10 +2567,10 @@
         <v>135</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H14" s="7">
         <v>3208</v>
@@ -2567,13 +2579,13 @@
         <v>3463088</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M14" s="7">
         <v>6341</v>
@@ -2582,10 +2594,10 @@
         <v>6811126</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>140</v>
@@ -2644,7 +2656,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2663,7 +2675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887AD442-EF34-4186-8A2D-9034663DAB72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3533693-98F3-4FB1-8FD0-0F9B5E3734C5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2787,13 +2799,13 @@
         <v>7142</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -2802,13 +2814,13 @@
         <v>8115</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>144</v>
+        <v>52</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>145</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -2817,13 +2829,13 @@
         <v>15258</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2838,13 +2850,13 @@
         <v>739164</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H5" s="7">
         <v>876</v>
@@ -2853,13 +2865,13 @@
         <v>976876</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>151</v>
+        <v>62</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M5" s="7">
         <v>1623</v>
@@ -2868,13 +2880,13 @@
         <v>1716039</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,13 +2954,13 @@
         <v>19057</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -2957,13 +2969,13 @@
         <v>24445</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>41</v>
@@ -2972,7 +2984,7 @@
         <v>43502</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>162</v>
@@ -2996,10 +3008,10 @@
         <v>164</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H8" s="7">
         <v>1876</v>
@@ -3008,13 +3020,13 @@
         <v>1953429</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M8" s="7">
         <v>3796</v>
@@ -3023,13 +3035,13 @@
         <v>3995344</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3109,13 @@
         <v>4604</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -3112,13 +3124,13 @@
         <v>5903</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -3127,13 +3139,13 @@
         <v>10507</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3160,13 @@
         <v>536658</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H11" s="7">
         <v>514</v>
@@ -3163,13 +3175,13 @@
         <v>536999</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="M11" s="7">
         <v>1007</v>
@@ -3178,13 +3190,13 @@
         <v>1073657</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,13 +3264,13 @@
         <v>30803</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -3267,13 +3279,13 @@
         <v>38463</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>189</v>
+        <v>58</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>33</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -3282,13 +3294,13 @@
         <v>69266</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3306,25 +3318,25 @@
         <v>164</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H14" s="7">
         <v>3266</v>
       </c>
       <c r="I14" s="7">
-        <v>3467303</v>
+        <v>3467304</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>194</v>
+        <v>68</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>43</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="M14" s="7">
         <v>6426</v>
@@ -3333,13 +3345,13 @@
         <v>6785040</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,7 +3378,7 @@
         <v>3303</v>
       </c>
       <c r="I15" s="7">
-        <v>3505766</v>
+        <v>3505767</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3395,7 +3407,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3414,7 +3426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79D0CED-6DF0-4B3C-9186-CF4060F5BC39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42BC9998-2DA2-4ED7-BEEA-F5F01822510C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3431,7 +3443,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3538,13 +3550,13 @@
         <v>12666</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -3553,13 +3565,13 @@
         <v>9307</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>134</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -3568,13 +3580,13 @@
         <v>21973</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>202</v>
+        <v>55</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,13 +3601,13 @@
         <v>527974</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="H5" s="7">
         <v>1411</v>
@@ -3604,13 +3616,13 @@
         <v>825996</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>139</v>
+        <v>203</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M5" s="7">
         <v>2088</v>
@@ -3619,13 +3631,13 @@
         <v>1353970</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>206</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,13 +3705,13 @@
         <v>33097</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H7" s="7">
         <v>38</v>
@@ -3708,13 +3720,13 @@
         <v>32633</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -3723,13 +3735,13 @@
         <v>65730</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>209</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>211</v>
+        <v>117</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,13 +3756,13 @@
         <v>2122658</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H8" s="7">
         <v>2879</v>
@@ -3759,13 +3771,13 @@
         <v>2214443</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M8" s="7">
         <v>4839</v>
@@ -3774,13 +3786,13 @@
         <v>4337101</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>215</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>218</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,13 +3860,13 @@
         <v>11867</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>217</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -3863,13 +3875,13 @@
         <v>13870</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>221</v>
+        <v>59</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -3878,10 +3890,10 @@
         <v>25737</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>143</v>
+        <v>220</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>133</v>
+        <v>221</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>222</v>
@@ -3899,13 +3911,13 @@
         <v>661172</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>223</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>224</v>
       </c>
       <c r="H11" s="7">
         <v>987</v>
@@ -3914,13 +3926,13 @@
         <v>700016</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>225</v>
+        <v>67</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M11" s="7">
         <v>1657</v>
@@ -3929,13 +3941,13 @@
         <v>1361189</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4003,13 +4015,13 @@
         <v>57631</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H13" s="7">
         <v>70</v>
@@ -4018,13 +4030,13 @@
         <v>55810</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>163</v>
+        <v>230</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M13" s="7">
         <v>120</v>
@@ -4033,13 +4045,13 @@
         <v>113441</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4054,13 +4066,13 @@
         <v>3311803</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>5277</v>
@@ -4069,13 +4081,13 @@
         <v>3740456</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>170</v>
+        <v>236</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M14" s="7">
         <v>8584</v>
@@ -4084,13 +4096,13 @@
         <v>7052259</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,7 +4158,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P45C_R1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P45C_R1-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C957D516-9E1E-4E0B-8296-32331E6A8691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6767D3A4-C9AE-4182-AFBB-D00F8AB395B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BBCCF03E-91A6-447D-BE25-307CB8188ACF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6E3057C9-AD88-4CF0-A749-967DEF9344C3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="247">
   <si>
     <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2007 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -77,691 +77,709 @@
     <t>0,99%</t>
   </si>
   <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2012 (Tasa respuesta: 99,08%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2016 (Tasa respuesta: 99,24%)</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
     <t>0,52%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
   </si>
   <si>
     <t>99,48%</t>
   </si>
   <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
   </si>
   <si>
     <t>1,1%</t>
   </si>
   <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
   </si>
   <si>
     <t>98,9%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2012 (Tasa respuesta: 99,08%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
   </si>
   <si>
     <t>0,98%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
   </si>
   <si>
     <t>99,02%</t>
   </si>
   <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
   </si>
   <si>
     <t>98,88%</t>
   </si>
   <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2016 (Tasa respuesta: 99,24%)</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
+    <t>3,54%</t>
   </si>
   <si>
     <t>1,94%</t>
   </si>
   <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
     <t>1,86%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
     <t>2,82%</t>
   </si>
   <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
+    <t>96,46%</t>
   </si>
   <si>
     <t>98,06%</t>
   </si>
   <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
     <t>98,14%</t>
   </si>
   <si>
     <t>97,18%</t>
   </si>
   <si>
-    <t>98,82%</t>
-  </si>
-  <si>
     <t>1,71%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>1,93%</t>
+    <t>1,31%</t>
   </si>
   <si>
     <t>98,29%</t>
   </si>
   <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
   </si>
   <si>
     <t>98,42%</t>
   </si>
   <si>
-    <t>98,07%</t>
+    <t>98,69%</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C34D85E-9A74-4D4B-B903-B687E8D93017}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3D068E-0CF1-44A7-B122-5BE46846B937}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1783,7 +1801,7 @@
         <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>107</v>
@@ -1792,13 +1810,13 @@
         <v>111492</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1813,13 +1831,13 @@
         <v>3213723</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>3234</v>
@@ -1828,13 +1846,13 @@
         <v>3314648</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>6388</v>
@@ -1843,13 +1861,13 @@
         <v>6528372</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1905,7 +1923,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1924,7 +1942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EA0509-611E-4E1F-BBF5-9B09DA63D3C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56734549-2D33-4276-A8F6-EA0E1F656AC5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1941,7 +1959,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2048,13 +2066,13 @@
         <v>10719</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -2063,13 +2081,13 @@
         <v>19600</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -2078,13 +2096,13 @@
         <v>30320</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2099,13 +2117,13 @@
         <v>955671</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="H5" s="7">
         <v>1214</v>
@@ -2203,13 +2221,13 @@
         <v>27813</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -2218,13 +2236,13 @@
         <v>25799</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -2233,13 +2251,13 @@
         <v>53612</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2254,13 +2272,13 @@
         <v>1922618</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="H8" s="7">
         <v>1595</v>
@@ -2272,10 +2290,10 @@
         <v>97</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
         <v>3412</v>
@@ -2284,13 +2302,13 @@
         <v>3638572</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2358,13 +2376,13 @@
         <v>5479</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -2373,13 +2391,13 @@
         <v>10861</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -2388,13 +2406,13 @@
         <v>16340</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2409,13 +2427,13 @@
         <v>469750</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H11" s="7">
         <v>399</v>
@@ -2424,13 +2442,13 @@
         <v>444807</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M11" s="7">
         <v>826</v>
@@ -2439,13 +2457,13 @@
         <v>914557</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2513,13 +2531,13 @@
         <v>44012</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H13" s="7">
         <v>53</v>
@@ -2528,13 +2546,13 @@
         <v>56260</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M13" s="7">
         <v>95</v>
@@ -2543,13 +2561,13 @@
         <v>100272</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2564,13 +2582,13 @@
         <v>3348038</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H14" s="7">
         <v>3208</v>
@@ -2579,13 +2597,13 @@
         <v>3463088</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="M14" s="7">
         <v>6341</v>
@@ -2594,13 +2612,13 @@
         <v>6811126</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2656,7 +2674,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2675,7 +2693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3533693-98F3-4FB1-8FD0-0F9B5E3734C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A7DF5B-96A3-4D4E-ACA4-E443A93A22B9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2692,7 +2710,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2799,13 +2817,13 @@
         <v>7142</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -2814,13 +2832,13 @@
         <v>8115</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -2829,13 +2847,13 @@
         <v>15258</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>149</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2850,13 +2868,13 @@
         <v>739164</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H5" s="7">
         <v>876</v>
@@ -2865,13 +2883,13 @@
         <v>976876</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M5" s="7">
         <v>1623</v>
@@ -2880,13 +2898,13 @@
         <v>1716039</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>156</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2954,13 +2972,13 @@
         <v>19057</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -2969,13 +2987,13 @@
         <v>24445</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>161</v>
+        <v>52</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="M7" s="7">
         <v>41</v>
@@ -2984,13 +3002,13 @@
         <v>43502</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,13 +3023,13 @@
         <v>2041915</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H8" s="7">
         <v>1876</v>
@@ -3020,13 +3038,13 @@
         <v>1953429</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>167</v>
+        <v>62</v>
       </c>
       <c r="M8" s="7">
         <v>3796</v>
@@ -3035,13 +3053,13 @@
         <v>3995344</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,13 +3127,13 @@
         <v>4604</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -3124,13 +3142,13 @@
         <v>5903</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -3139,13 +3157,13 @@
         <v>10507</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,13 +3178,13 @@
         <v>536658</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H11" s="7">
         <v>514</v>
@@ -3175,13 +3193,13 @@
         <v>536999</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M11" s="7">
         <v>1007</v>
@@ -3190,13 +3208,13 @@
         <v>1073657</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3264,13 +3282,13 @@
         <v>30803</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>184</v>
+        <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -3279,13 +3297,13 @@
         <v>38463</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>58</v>
+        <v>190</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -3294,13 +3312,13 @@
         <v>69266</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>121</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,28 +3333,28 @@
         <v>3317737</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>190</v>
+        <v>139</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="H14" s="7">
         <v>3266</v>
       </c>
       <c r="I14" s="7">
-        <v>3467304</v>
+        <v>3467303</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>68</v>
+        <v>194</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="M14" s="7">
         <v>6426</v>
@@ -3345,13 +3363,13 @@
         <v>6785040</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,7 +3396,7 @@
         <v>3303</v>
       </c>
       <c r="I15" s="7">
-        <v>3505767</v>
+        <v>3505766</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3407,7 +3425,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3426,7 +3444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42BC9998-2DA2-4ED7-BEEA-F5F01822510C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA32DD71-ABEB-437E-A04A-248D2FC4DADC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3443,7 +3461,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3550,13 +3568,13 @@
         <v>12666</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -3565,13 +3583,13 @@
         <v>9307</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -3580,13 +3598,13 @@
         <v>21973</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>55</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>116</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,13 +3619,13 @@
         <v>527974</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H5" s="7">
         <v>1411</v>
@@ -3616,13 +3634,13 @@
         <v>825996</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M5" s="7">
         <v>2088</v>
@@ -3631,10 +3649,10 @@
         <v>1353970</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>124</v>
+        <v>208</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>65</v>
@@ -3705,13 +3723,13 @@
         <v>33097</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H7" s="7">
         <v>38</v>
@@ -3720,13 +3738,13 @@
         <v>32633</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -3735,13 +3753,13 @@
         <v>65730</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>117</v>
+        <v>215</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3756,13 +3774,13 @@
         <v>2122658</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="H8" s="7">
         <v>2879</v>
@@ -3771,13 +3789,13 @@
         <v>2214443</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="M8" s="7">
         <v>4839</v>
@@ -3786,13 +3804,13 @@
         <v>4337101</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>126</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3860,13 +3878,13 @@
         <v>11867</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>217</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -3875,13 +3893,13 @@
         <v>13870</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>113</v>
+        <v>227</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>59</v>
+        <v>228</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -3890,13 +3908,13 @@
         <v>25737</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>221</v>
+        <v>137</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3911,13 +3929,13 @@
         <v>661172</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>224</v>
+        <v>171</v>
       </c>
       <c r="H11" s="7">
         <v>987</v>
@@ -3926,13 +3944,13 @@
         <v>700016</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>67</v>
+        <v>233</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>121</v>
+        <v>234</v>
       </c>
       <c r="M11" s="7">
         <v>1657</v>
@@ -3941,13 +3959,13 @@
         <v>1361189</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>228</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4015,13 +4033,13 @@
         <v>57631</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>238</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H13" s="7">
         <v>70</v>
@@ -4030,13 +4048,13 @@
         <v>55810</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>230</v>
+        <v>19</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>231</v>
+        <v>137</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="M13" s="7">
         <v>120</v>
@@ -4045,13 +4063,13 @@
         <v>113441</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>189</v>
+        <v>241</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4066,13 +4084,13 @@
         <v>3311803</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>243</v>
       </c>
       <c r="H14" s="7">
         <v>5277</v>
@@ -4081,13 +4099,13 @@
         <v>3740456</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>236</v>
+        <v>28</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>238</v>
+        <v>146</v>
       </c>
       <c r="M14" s="7">
         <v>8584</v>
@@ -4096,13 +4114,13 @@
         <v>7052259</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4158,7 +4176,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P45C_R1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P45C_R1-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6767D3A4-C9AE-4182-AFBB-D00F8AB395B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76CE1FE9-1D1E-485D-8417-8B6AE82A4B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6E3057C9-AD88-4CF0-A749-967DEF9344C3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2283C31E-E2EA-4576-A4F9-5DC6E328BA4E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="243">
   <si>
     <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2007 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -638,148 +638,136 @@
     <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2023 (Tasa respuesta: 99,82%)</t>
   </si>
   <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
   </si>
   <si>
     <t>1,86%</t>
   </si>
   <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
   </si>
   <si>
     <t>98,14%</t>
   </si>
   <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
   </si>
 </sst>
 </file>
@@ -1191,7 +1179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3D068E-0CF1-44A7-B122-5BE46846B937}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE9CA48-F6E4-4EBC-9D4E-EE440962403D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1393,7 +1381,7 @@
         <v>2299</v>
       </c>
       <c r="N5" s="7">
-        <v>2317419</v>
+        <v>2317420</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1444,7 +1432,7 @@
         <v>2324</v>
       </c>
       <c r="N6" s="7">
-        <v>2341322</v>
+        <v>2341323</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1942,7 +1930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56734549-2D33-4276-A8F6-EA0E1F656AC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9B5FFB-B902-4FF5-BC60-50A41882D477}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2609,7 +2597,7 @@
         <v>6341</v>
       </c>
       <c r="N14" s="7">
-        <v>6811126</v>
+        <v>6811127</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>113</v>
@@ -2660,7 +2648,7 @@
         <v>6436</v>
       </c>
       <c r="N15" s="7">
-        <v>6911398</v>
+        <v>6911399</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2693,7 +2681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A7DF5B-96A3-4D4E-ACA4-E443A93A22B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139D2614-60C0-470D-AB56-608AD5DDD534}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3345,7 +3333,7 @@
         <v>3266</v>
       </c>
       <c r="I14" s="7">
-        <v>3467303</v>
+        <v>3467304</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>194</v>
@@ -3396,7 +3384,7 @@
         <v>3303</v>
       </c>
       <c r="I15" s="7">
-        <v>3505766</v>
+        <v>3505767</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3444,7 +3432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA32DD71-ABEB-437E-A04A-248D2FC4DADC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94304EA6-CECE-4A09-93CE-DAB0B9BE3B62}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3565,46 +3553,46 @@
         <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>12666</v>
+        <v>11821</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>199</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>9307</v>
+        <v>8686</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
       </c>
       <c r="N4" s="7">
-        <v>21973</v>
+        <v>20507</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>134</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>203</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3616,7 +3604,7 @@
         <v>677</v>
       </c>
       <c r="D5" s="7">
-        <v>527974</v>
+        <v>502177</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>204</v>
@@ -3625,19 +3613,19 @@
         <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
         <v>1411</v>
       </c>
       <c r="I5" s="7">
-        <v>825996</v>
+        <v>746229</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>206</v>
+        <v>114</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>207</v>
@@ -3646,16 +3634,16 @@
         <v>2088</v>
       </c>
       <c r="N5" s="7">
-        <v>1353970</v>
+        <v>1248406</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>208</v>
+        <v>126</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3667,7 +3655,7 @@
         <v>689</v>
       </c>
       <c r="D6" s="7">
-        <v>540640</v>
+        <v>513998</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3682,7 +3670,7 @@
         <v>1426</v>
       </c>
       <c r="I6" s="7">
-        <v>835303</v>
+        <v>754915</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3697,7 +3685,7 @@
         <v>2115</v>
       </c>
       <c r="N6" s="7">
-        <v>1375943</v>
+        <v>1268913</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3720,25 +3708,25 @@
         <v>27</v>
       </c>
       <c r="D7" s="7">
-        <v>33097</v>
+        <v>31851</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H7" s="7">
         <v>38</v>
       </c>
       <c r="I7" s="7">
-        <v>32633</v>
+        <v>30422</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>107</v>
+        <v>211</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>212</v>
@@ -3750,16 +3738,16 @@
         <v>65</v>
       </c>
       <c r="N7" s="7">
-        <v>65730</v>
+        <v>62273</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>214</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,46 +3759,46 @@
         <v>1960</v>
       </c>
       <c r="D8" s="7">
-        <v>2122658</v>
+        <v>2252130</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H8" s="7">
         <v>2879</v>
       </c>
       <c r="I8" s="7">
-        <v>2214443</v>
+        <v>2205340</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>113</v>
+        <v>218</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M8" s="7">
         <v>4839</v>
       </c>
       <c r="N8" s="7">
-        <v>4337101</v>
+        <v>4457470</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>223</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>224</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3822,7 +3810,7 @@
         <v>1987</v>
       </c>
       <c r="D9" s="7">
-        <v>2155755</v>
+        <v>2283981</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3837,7 +3825,7 @@
         <v>2917</v>
       </c>
       <c r="I9" s="7">
-        <v>2247076</v>
+        <v>2235762</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3852,7 +3840,7 @@
         <v>4904</v>
       </c>
       <c r="N9" s="7">
-        <v>4402831</v>
+        <v>4519743</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3875,46 +3863,46 @@
         <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>11867</v>
+        <v>11616</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
       </c>
       <c r="I10" s="7">
-        <v>13870</v>
+        <v>12588</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
       </c>
       <c r="N10" s="7">
-        <v>25737</v>
+        <v>24204</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>229</v>
+        <v>180</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>137</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,43 +3914,43 @@
         <v>670</v>
       </c>
       <c r="D11" s="7">
-        <v>661172</v>
+        <v>635007</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>171</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>987</v>
       </c>
       <c r="I11" s="7">
-        <v>700016</v>
+        <v>647875</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M11" s="7">
         <v>1657</v>
       </c>
       <c r="N11" s="7">
-        <v>1361189</v>
+        <v>1282882</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>146</v>
@@ -3977,7 +3965,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3992,7 +3980,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4007,7 +3995,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4030,46 +4018,46 @@
         <v>50</v>
       </c>
       <c r="D13" s="7">
-        <v>57631</v>
+        <v>55289</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>238</v>
+        <v>137</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>203</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>70</v>
       </c>
       <c r="I13" s="7">
-        <v>55810</v>
+        <v>51696</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>19</v>
+        <v>234</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M13" s="7">
         <v>120</v>
       </c>
       <c r="N13" s="7">
-        <v>113441</v>
+        <v>106985</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4081,46 +4069,46 @@
         <v>3307</v>
       </c>
       <c r="D14" s="7">
-        <v>3311803</v>
+        <v>3389313</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>243</v>
+        <v>146</v>
       </c>
       <c r="H14" s="7">
         <v>5277</v>
       </c>
       <c r="I14" s="7">
-        <v>3740456</v>
+        <v>3599444</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>28</v>
+        <v>239</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="M14" s="7">
         <v>8584</v>
       </c>
       <c r="N14" s="7">
-        <v>7052259</v>
+        <v>6988757</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,7 +4120,7 @@
         <v>3357</v>
       </c>
       <c r="D15" s="7">
-        <v>3369434</v>
+        <v>3444602</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4147,7 +4135,7 @@
         <v>5347</v>
       </c>
       <c r="I15" s="7">
-        <v>3796266</v>
+        <v>3651140</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4162,7 +4150,7 @@
         <v>8704</v>
       </c>
       <c r="N15" s="7">
-        <v>7165700</v>
+        <v>7095742</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
